--- a/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,11</t>
+          <t>14,62; 24,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,61</t>
+          <t>13,66; 20,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 21,16</t>
+          <t>15,22; 21,13</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,48</t>
+          <t>9,87; 17,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 18,58</t>
+          <t>13,19; 18,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,99</t>
+          <t>12,4; 16,94</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,34; 35,33</t>
+          <t>25,67; 35,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,41; 34,64</t>
+          <t>26,13; 34,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,34; 33,86</t>
+          <t>27,22; 33,47</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,11; 38,46</t>
+          <t>26,07; 38,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 39,36</t>
+          <t>25,62; 39,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 36,15</t>
+          <t>26,92; 36,68</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,95; 35,31</t>
+          <t>22,78; 35,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,93; 21,82</t>
+          <t>11,88; 21,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,77</t>
+          <t>17,79; 25,91</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,68; 38,18</t>
+          <t>27,74; 37,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 32,46</t>
+          <t>23,47; 32,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,04; 33,71</t>
+          <t>26,95; 33,99</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,98; 39,7</t>
+          <t>31,03; 40,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,12; 39,51</t>
+          <t>20,77; 39,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,65; 37,89</t>
+          <t>24,42; 37,51</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,48; 87,12</t>
+          <t>63,59; 87,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85,87; 90,17</t>
+          <t>86,04; 90,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,61; 87,83</t>
+          <t>75,42; 87,79</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38,34; 42,7</t>
+          <t>38,36; 42,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,27; 41,99</t>
+          <t>35,64; 41,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>37,89; 41,71</t>
+          <t>37,75; 41,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 24,46</t>
+          <t>14,26; 24,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,97</t>
+          <t>14,02; 20,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,13</t>
+          <t>14,96; 21,16</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 17,27</t>
+          <t>9,89; 17,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,69</t>
+          <t>13,21; 18,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 16,94</t>
+          <t>12,28; 16,99</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,67; 35,11</t>
+          <t>25,34; 35,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 34,48</t>
+          <t>26,41; 34,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,47</t>
+          <t>27,34; 33,86</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 38,96</t>
+          <t>26,11; 38,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,62; 39,25</t>
+          <t>25,99; 39,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,92; 36,68</t>
+          <t>26,93; 36,15</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 35,14</t>
+          <t>22,95; 35,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 21,82</t>
+          <t>11,93; 21,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,79; 25,91</t>
+          <t>17,6; 25,77</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,74; 37,81</t>
+          <t>27,68; 38,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,47; 32,15</t>
+          <t>23,11; 32,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,95; 33,99</t>
+          <t>27,04; 33,71</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,03; 40,1</t>
+          <t>30,98; 39,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,77; 39,46</t>
+          <t>20,12; 39,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,42; 37,51</t>
+          <t>25,65; 37,89</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,59; 87,23</t>
+          <t>64,48; 87,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>86,04; 90,21</t>
+          <t>85,87; 90,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>75,42; 87,79</t>
+          <t>74,61; 87,83</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38,36; 42,86</t>
+          <t>38,34; 42,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,78</t>
+          <t>36,27; 41,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>37,75; 41,79</t>
+          <t>37,89; 41,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 24,12</t>
+          <t>13,92; 24,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 20,6</t>
+          <t>13,45; 20,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 21,38</t>
+          <t>14,7; 21,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,33</t>
+          <t>9,72; 17,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,44</t>
+          <t>12,92; 18,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,94</t>
+          <t>11,95; 16,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,26; 35,31</t>
+          <t>25,16; 35,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,53; 34,8</t>
+          <t>26,64; 34,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,38; 33,91</t>
+          <t>27,26; 33,77</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,43; 37,94</t>
+          <t>24,59; 37,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,4; 60,39</t>
+          <t>24,56; 59,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 51,73</t>
+          <t>27,21; 52,65</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 35,04</t>
+          <t>22,54; 34,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,56</t>
+          <t>8,54; 20,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,59; 24,82</t>
+          <t>14,17; 24,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,71; 38,18</t>
+          <t>27,71; 38,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,47</t>
+          <t>23,61; 32,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,8</t>
+          <t>27,02; 33,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,64; 39,55</t>
+          <t>30,35; 39,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,73; 39,28</t>
+          <t>15,57; 39,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 37,55</t>
+          <t>18,1; 37,46</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 87,0</t>
+          <t>28,43; 86,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,17</t>
+          <t>86,08; 90,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,97; 87,75</t>
+          <t>46,35; 87,59</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,4; 39,99</t>
+          <t>28,03; 39,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>31,75; 41,44</t>
+          <t>30,37; 41,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,19; 39,79</t>
+          <t>32,27; 39,85</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas de temperatura en la vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>57789</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48659</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>106447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43346; 75560</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38957; 59790</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88364; 127809</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68379</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>80123</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148502</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50380; 91424</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>66546; 94442</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>123496; 174167</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>94849</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>107374</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>202222</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79526; 112331</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93020; 122137</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>181320; 224658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97773</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>176419</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>274192</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>76851; 116634</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>116834; 283169</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>214460; 414992</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>49999</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40415</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90414</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40290; 62483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22090; 53692</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>62016; 107908</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88970</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>70874</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>159844</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>74712; 103137</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>60687; 82987</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>142311; 178555</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>216977</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>246792</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>463770</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>189495; 246606</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>132202; 333771</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>266772; 551983</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>589780</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>632832</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1222613</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>264061; 807180</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>617788; 646959</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>763212; 1442114</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1419</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3553</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1264515</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1403489</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2668004</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>969935; 1380426</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1127339; 1534209</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2314614; 2858358</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>